--- a/biology/Médecine/Ligament_supra-spinal/Ligament_supra-spinal.xlsx
+++ b/biology/Médecine/Ligament_supra-spinal/Ligament_supra-spinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament supra-spinal (ou ligament surépineux) est un un ligament situé tout le long de la face postérieure de la colonne vertébrale.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament supra-spinal débute sur le bord postérieur du foramen magnum et se termine sur la crête sacrale médiane.
-Au-dessus de la septième vertèbre cervicale, le ligament supra-épineux se confond  avec le ligament nuchal[1].
+Au-dessus de la septième vertèbre cervicale, le ligament supra-épineux se confond  avec le ligament nuchal.
 De la septième vertèbres cervicale au sacrum, il unit tous les sommets des processus épineux. 
 Entre les processus épineux, il est en continuité avec les ligaments inter-épineux .
 Il est plus épais et plus large dans la région lombaire que dans la région thoracique et dans ces deux zones, il est intimement lié au fascia voisin.
@@ -547,7 +561,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament supra-spinal, associé au ligament longitudinal postérieur, aux ligaments inter-épineux et au ligaments jaunes, contribue à limiter l'hyperflexion de la colonne vertébrale.
 </t>
@@ -578,7 +594,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lésions du ligament supra-spinal peuvent entraîner un épaississement palpable. 
 Son exploration peut se faire par échographie. 
